--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N2">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P2">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q2">
-        <v>22.04552398674389</v>
+        <v>9.052139074111</v>
       </c>
       <c r="R2">
-        <v>198.409715880695</v>
+        <v>81.469251666999</v>
       </c>
       <c r="S2">
-        <v>0.00985411325896177</v>
+        <v>0.005664756709829594</v>
       </c>
       <c r="T2">
-        <v>0.009854113258961772</v>
+        <v>0.005664756709829594</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H3">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>278.741173</v>
       </c>
       <c r="O3">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P3">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q3">
-        <v>1104.476993423392</v>
+        <v>613.5257675022069</v>
       </c>
       <c r="R3">
-        <v>9940.292940810528</v>
+        <v>5521.731907519863</v>
       </c>
       <c r="S3">
-        <v>0.4936893943485345</v>
+        <v>0.3839395506031596</v>
       </c>
       <c r="T3">
-        <v>0.4936893943485345</v>
+        <v>0.3839395506031597</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H4">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N4">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P4">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q4">
-        <v>206.5327426701305</v>
+        <v>196.236410023668</v>
       </c>
       <c r="R4">
-        <v>1858.794684031175</v>
+        <v>1766.127690213012</v>
       </c>
       <c r="S4">
-        <v>0.09231792536114132</v>
+        <v>0.1228031862185698</v>
       </c>
       <c r="T4">
-        <v>0.09231792536114132</v>
+        <v>0.1228031862185698</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H5">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J5">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N5">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O5">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P5">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q5">
-        <v>1.927330790909334</v>
+        <v>1.822087264557</v>
       </c>
       <c r="R5">
-        <v>17.345977118184</v>
+        <v>16.398785381013</v>
       </c>
       <c r="S5">
-        <v>0.000861496234452174</v>
+        <v>0.001140247732971115</v>
       </c>
       <c r="T5">
-        <v>0.0008614962344521742</v>
+        <v>0.001140247732971115</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J6">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N6">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P6">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q6">
-        <v>0.7021216690927777</v>
+        <v>0.5189996140778889</v>
       </c>
       <c r="R6">
-        <v>6.319095021835</v>
+        <v>4.670996526701</v>
       </c>
       <c r="S6">
-        <v>0.0003138408709619159</v>
+        <v>0.0003247858348371019</v>
       </c>
       <c r="T6">
-        <v>0.000313840870961916</v>
+        <v>0.0003247858348371019</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J7">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>278.741173</v>
       </c>
       <c r="O7">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P7">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q7">
         <v>35.17617592411522</v>
@@ -883,10 +883,10 @@
         <v>316.585583317037</v>
       </c>
       <c r="S7">
-        <v>0.01572337413172064</v>
+        <v>0.02201297140497673</v>
       </c>
       <c r="T7">
-        <v>0.01572337413172064</v>
+        <v>0.02201297140497673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.135769</v>
       </c>
       <c r="I8">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J8">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N8">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P8">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q8">
-        <v>6.577803008586112</v>
+        <v>11.25111095139867</v>
       </c>
       <c r="R8">
-        <v>59.200227077275</v>
+        <v>101.259998562588</v>
       </c>
       <c r="S8">
-        <v>0.002940207539667587</v>
+        <v>0.00704085583895342</v>
       </c>
       <c r="T8">
-        <v>0.002940207539667587</v>
+        <v>0.007040855838953419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.135769</v>
       </c>
       <c r="I9">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J9">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N9">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O9">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P9">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q9">
-        <v>0.06138301419466668</v>
+        <v>0.1044684112096667</v>
       </c>
       <c r="R9">
-        <v>0.5524471277520001</v>
+        <v>0.940215700887</v>
       </c>
       <c r="S9">
-        <v>2.743755033513464E-05</v>
+        <v>6.537550169304213E-05</v>
       </c>
       <c r="T9">
-        <v>2.743755033513464E-05</v>
+        <v>6.537550169304212E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H10">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N10">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P10">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q10">
-        <v>6.549910065943889</v>
+        <v>4.717853536733111</v>
       </c>
       <c r="R10">
-        <v>58.949190593495</v>
+        <v>42.46068183059801</v>
       </c>
       <c r="S10">
-        <v>0.002927739692857166</v>
+        <v>0.002952395258114928</v>
       </c>
       <c r="T10">
-        <v>0.002927739692857167</v>
+        <v>0.002952395258114929</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H11">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J11">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>278.741173</v>
       </c>
       <c r="O11">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P11">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q11">
-        <v>328.1493776776321</v>
+        <v>319.7614053859918</v>
       </c>
       <c r="R11">
-        <v>2953.344399098689</v>
+        <v>2877.852648473926</v>
       </c>
       <c r="S11">
-        <v>0.1466792594922037</v>
+        <v>0.2001041468624067</v>
       </c>
       <c r="T11">
-        <v>0.1466792594922037</v>
+        <v>0.2001041468624067</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H12">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J12">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N12">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P12">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q12">
-        <v>61.36260997813056</v>
+        <v>102.2757862518693</v>
       </c>
       <c r="R12">
-        <v>552.2634898031749</v>
+        <v>920.482076266824</v>
       </c>
       <c r="S12">
-        <v>0.02742842986873846</v>
+        <v>0.06400337441570662</v>
       </c>
       <c r="T12">
-        <v>0.02742842986873846</v>
+        <v>0.06400337441570662</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H13">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J13">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N13">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O13">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P13">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q13">
-        <v>0.5726261419493335</v>
+        <v>0.9496474562473333</v>
       </c>
       <c r="R13">
-        <v>5.153635277544001</v>
+        <v>8.546827106226001</v>
       </c>
       <c r="S13">
-        <v>0.0002559577563773969</v>
+        <v>0.0005942818328029283</v>
       </c>
       <c r="T13">
-        <v>0.0002559577563773969</v>
+        <v>0.0005942818328029283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H14">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I14">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J14">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.854571666666667</v>
+        <v>1.370876333333333</v>
       </c>
       <c r="N14">
-        <v>5.563715</v>
+        <v>4.112629</v>
       </c>
       <c r="O14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="P14">
-        <v>0.01651371646154392</v>
+        <v>0.01103063309339269</v>
       </c>
       <c r="Q14">
-        <v>7.646766186856666</v>
+        <v>3.337682661859778</v>
       </c>
       <c r="R14">
-        <v>68.82089568171</v>
+        <v>30.039143956738</v>
       </c>
       <c r="S14">
-        <v>0.003418022638763066</v>
+        <v>0.002088695290611068</v>
       </c>
       <c r="T14">
-        <v>0.003418022638763067</v>
+        <v>0.002088695290611068</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H15">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I15">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J15">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>278.741173</v>
       </c>
       <c r="O15">
-        <v>0.8273343794712995</v>
+        <v>0.7476219244149905</v>
       </c>
       <c r="P15">
-        <v>0.8273343794712996</v>
+        <v>0.7476219244149904</v>
       </c>
       <c r="Q15">
-        <v>383.1016823437513</v>
+        <v>226.2177260016784</v>
       </c>
       <c r="R15">
-        <v>3447.915141093762</v>
+        <v>2035.959534015106</v>
       </c>
       <c r="S15">
-        <v>0.1712423514988407</v>
+        <v>0.1415652555444473</v>
       </c>
       <c r="T15">
-        <v>0.1712423514988407</v>
+        <v>0.1415652555444473</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H16">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I16">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J16">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.37449166666667</v>
+        <v>29.718484</v>
       </c>
       <c r="N16">
-        <v>52.123475</v>
+        <v>89.155452</v>
       </c>
       <c r="O16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="P16">
-        <v>0.1547081917640233</v>
+        <v>0.2391271080585153</v>
       </c>
       <c r="Q16">
-        <v>71.63846929101666</v>
+        <v>72.35581093034934</v>
       </c>
       <c r="R16">
-        <v>644.74622361915</v>
+        <v>651.202298373144</v>
       </c>
       <c r="S16">
-        <v>0.03202162899447594</v>
+        <v>0.0452796915852855</v>
       </c>
       <c r="T16">
-        <v>0.03202162899447594</v>
+        <v>0.0452796915852855</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4.123197999999999</v>
+        <v>2.434707333333333</v>
       </c>
       <c r="H17">
-        <v>12.369594</v>
+        <v>7.304122</v>
       </c>
       <c r="I17">
-        <v>0.2069808238940481</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="J17">
-        <v>0.2069808238940482</v>
+        <v>0.1893540717859783</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.162136</v>
+        <v>0.275941</v>
       </c>
       <c r="N17">
-        <v>0.4864080000000001</v>
+        <v>0.827823</v>
       </c>
       <c r="O17">
-        <v>0.001443712303133186</v>
+        <v>0.002220334433101459</v>
       </c>
       <c r="P17">
-        <v>0.001443712303133187</v>
+        <v>0.002220334433101458</v>
       </c>
       <c r="Q17">
-        <v>0.668518830928</v>
+        <v>0.6718355762673334</v>
       </c>
       <c r="R17">
-        <v>6.016669478352</v>
+        <v>6.046520186406</v>
       </c>
       <c r="S17">
-        <v>0.0002988207619684807</v>
+        <v>0.000420429365634373</v>
       </c>
       <c r="T17">
-        <v>0.0002988207619684808</v>
+        <v>0.000420429365634373</v>
       </c>
     </row>
   </sheetData>
